--- a/delta2/evidence/dfir/2021-05-12-dfir--ransom-conti--v1.1.xlsx
+++ b/delta2/evidence/dfir/2021-05-12-dfir--ransom-conti--v1.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/evidence/dfir/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A957CE11-1F54-974C-903D-B830CF336039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F5DE1AA-DAFB-624D-9BE6-DD3B814A04B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="-21100" windowWidth="38340" windowHeight="21100" xr2:uid="{4FBEA496-5ECB-C248-B1D9-3E5612DBBE3F}"/>
+    <workbookView xWindow="60" yWindow="-21100" windowWidth="38340" windowHeight="21100" activeTab="1" xr2:uid="{4FBEA496-5ECB-C248-B1D9-3E5612DBBE3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Link" sheetId="9" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="176">
   <si>
     <t>Description</t>
   </si>
@@ -127,9 +127,6 @@
     <t>ScriptContents</t>
   </si>
   <si>
-    <t>file-create--winos-dc</t>
-  </si>
-  <si>
     <t>Label</t>
   </si>
   <si>
@@ -251,6 +248,333 @@
   </si>
   <si>
     <t>ransom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rundll32.exe "C:\Users\REDACTED\AppData\Local\Temp\rate_x32.dat",update /i:"LaborBetray\license.dat" </t>
+  </si>
+  <si>
+    <t>ipconfig /all</t>
+  </si>
+  <si>
+    <t>systeminfo</t>
+  </si>
+  <si>
+    <t>whoami /groups</t>
+  </si>
+  <si>
+    <t>net config workstation</t>
+  </si>
+  <si>
+    <t>nltest /domain_trusts</t>
+  </si>
+  <si>
+    <t>nltest /domain_trusts  /all_trusts</t>
+  </si>
+  <si>
+    <t>net view /all /domain</t>
+  </si>
+  <si>
+    <t>net view /all</t>
+  </si>
+  <si>
+    <t>net group "Domain Admins" /domain</t>
+  </si>
+  <si>
+    <t>cmd.exe /C dsquery subnet -limit 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cmd.exe /C reg add "hklm\system\currentControlSet\Control\Terminal Server" /v "fDenyTSConnections" /t REG_DWORD /d 0x0 /f </t>
+  </si>
+  <si>
+    <t>cmd.exe /C netsh firewall set service type = remotedesktop mode = enable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cmd.exe /C netsh firewall set rule group="remote desktop" new enable=Yes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cmd.exe /C netsh advfirewall set rule group="remote desktop" new enable=Yes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cmd.exe /C copy 192145.dll \\&lt;INTERNAL_IP&gt;\ADMIN$ /Y /Z </t>
+  </si>
+  <si>
+    <t xml:space="preserve">psexec.exe -accepteula -d -s \\&lt;INTERNAL_IP&gt; rundll32.exe C:\windows\192145.dll,StartW </t>
+  </si>
+  <si>
+    <t>net user /add /Y nuuser 7HeC00l3stP@ssw0rd</t>
+  </si>
+  <si>
+    <t>net localgroup administrators nuuser /add</t>
+  </si>
+  <si>
+    <t>rundll32.exe</t>
+  </si>
+  <si>
+    <t>cmd.exe /c whoami /groups</t>
+  </si>
+  <si>
+    <t>icjul.exe</t>
+  </si>
+  <si>
+    <t>C:\Windows\system32\cmd.exe /c echo 4d64fbbbf34 &gt; \\.\pipe\b4312c</t>
+  </si>
+  <si>
+    <t>C:\Windows\system32\runonce.exe</t>
+  </si>
+  <si>
+    <t>C:\Windows\system32\cmd.exe /C gpupdate /force</t>
+  </si>
+  <si>
+    <t>“rundll32.exe” c:\windows\192145.dll,StartW</t>
+  </si>
+  <si>
+    <t>C:\Windows\System32\dllhost.exe</t>
+  </si>
+  <si>
+    <t>C:\Users\USER\AppData\Local\Temp\icju1.exe</t>
+  </si>
+  <si>
+    <t>cmd.exe /c echo &lt;randomstring&gt; &gt; \"c:\windows\TEMP\dem238D.tmp\" &amp;exit</t>
+  </si>
+  <si>
+    <t>rundll32.exe c:\windows\192145.dll, StartW</t>
+  </si>
+  <si>
+    <t>regsvr32 /s C:\Users|admin\AppData\Local\Temp\&lt;random&gt;.dll</t>
+  </si>
+  <si>
+    <t>regsvr32.exe</t>
+  </si>
+  <si>
+    <t>C:\\windows\system32\cmd.exe /C net localgroup administrators nuuser /add</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "rundll32.exe" c:\windows\a92145.dll,StartW</t>
+  </si>
+  <si>
+    <t>10.&lt;redact&gt;</t>
+  </si>
+  <si>
+    <t>"C:\Users\&lt;redact&gt;\AppData\Local\Temp\rate_x32.dat" ,update /i:"LaborBetray\license.dat"</t>
+  </si>
+  <si>
+    <t>192.99.178.145</t>
+  </si>
+  <si>
+    <t>http://&lt;ip&gt;/bg</t>
+  </si>
+  <si>
+    <t>runonce.exe</t>
+  </si>
+  <si>
+    <t>http://&lt;url.com&gt;/bg</t>
+  </si>
+  <si>
+    <t>195145.exe</t>
+  </si>
+  <si>
+    <t>http://&lt;url.com&gt;/btn_bg</t>
+  </si>
+  <si>
+    <t>c:\Windows\system32\lsass.exe</t>
+  </si>
+  <si>
+    <t>0x1010</t>
+  </si>
+  <si>
+    <t>C:\Windows\system32\ntdll.dll+&lt;random&gt;|C:\Windows\System32\KERNELBASE.DLL+&lt;random&gt;|UNKNOWN(00000&lt;random&gt;)</t>
+  </si>
+  <si>
+    <t>\&lt;redacted&gt;\ADMIN$\a43f562.exe</t>
+  </si>
+  <si>
+    <t>LocalSystem</t>
+  </si>
+  <si>
+    <t>a43f562</t>
+  </si>
+  <si>
+    <t>user mode service</t>
+  </si>
+  <si>
+    <t>demand start</t>
+  </si>
+  <si>
+    <t>\&lt;redacted&gt;\ADMIN$\a068564.exe</t>
+  </si>
+  <si>
+    <t>a068564</t>
+  </si>
+  <si>
+    <t>process-create</t>
+  </si>
+  <si>
+    <t>file-create--winos</t>
+  </si>
+  <si>
+    <t>Tool</t>
+  </si>
+  <si>
+    <t>Malware</t>
+  </si>
+  <si>
+    <t>IcedID</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>Cobalt strike</t>
+  </si>
+  <si>
+    <t>Psexec</t>
+  </si>
+  <si>
+    <t>TTP</t>
+  </si>
+  <si>
+    <t>GetSystem Cobalt Strike</t>
+  </si>
+  <si>
+    <t>Port Scan From Domain Controller</t>
+  </si>
+  <si>
+    <t>C:\Users|admin\AppData\Local\Temp\&lt;random&gt;.dll</t>
+  </si>
+  <si>
+    <t>ET MALWARE Win32/IcedID Requesting Encoded Binary M4 </t>
+  </si>
+  <si>
+    <t>ET MALWARE W32/Photoloader.Downloader Request Cookie </t>
+  </si>
+  <si>
+    <t>ET POLICY PE EXE or DLL Windows file download HTTP </t>
+  </si>
+  <si>
+    <t>ET INFO Executable Retrieved With Minimal HTTP Headers – Potential Second Stage Download </t>
+  </si>
+  <si>
+    <t>ET INFO Packed Executable Download </t>
+  </si>
+  <si>
+    <t>ET POLICY OpenSSL Demo CA – Internet Widgits Pty </t>
+  </si>
+  <si>
+    <t>ATTACK [PTsecurity] Overpass the hash. Encryption downgrade activity to ARCFOUR-HMAC-MD5 </t>
+  </si>
+  <si>
+    <t>ET SCAN Behavioral Unusual Port 135 traffic Potential Scan or Infection </t>
+  </si>
+  <si>
+    <t>ET SCAN Behavioral Unusual Port 445 traffic Potential Scan or Infection </t>
+  </si>
+  <si>
+    <t>ET SCAN Behavioral Unusual Port 1434 traffic Potential Scan or Infection </t>
+  </si>
+  <si>
+    <t>ET SCAN Behavioral Unusual Port 1435 traffic Potential Scan or Infection</t>
+  </si>
+  <si>
+    <t>https://github.com/SigmaHQ/sigma/blob/master/rules/windows/builtin/win_meterpreter_or_cobaltstrike_getsystem_service_installation.yml</t>
+  </si>
+  <si>
+    <t>https://github.com/SigmaHQ/sigma/blob/master/rules/windows/process_creation/win_susp_commands_recon_activity.yml</t>
+  </si>
+  <si>
+    <t>https://github.com/SigmaHQ/sigma/blob/master/rules/windows/other/win_defender_disabled.yml</t>
+  </si>
+  <si>
+    <t>https://github.com/SigmaHQ/sigma/blob/master/rules/windows/other/win_tool_psexec.yml</t>
+  </si>
+  <si>
+    <t>https://github.com/SigmaHQ/sigma/blob/master/rules/windows/process_access/sysmon_in_memory_assembly_execution.yml</t>
+  </si>
+  <si>
+    <t>https://github.com/SigmaHQ/sigma/blob/master/rules/windows/network_connection/sysmon_rundll32_net_connections.yml</t>
+  </si>
+  <si>
+    <t>https://github.com/SigmaHQ/sigma/blob/master/rules/windows/process_creation/win_net_user_add.yml</t>
+  </si>
+  <si>
+    <t>https://github.com/SigmaHQ/sigma/blob/master/rules/windows/process_creation/win_psexesvc_start.yml</t>
+  </si>
+  <si>
+    <t>https://github.com/SigmaHQ/sigma/blob/master/rules/windows/process_creation/win_susp_psexec_eula.yml</t>
+  </si>
+  <si>
+    <t>Sigma</t>
+  </si>
+  <si>
+    <t>ETPro</t>
+  </si>
+  <si>
+    <t>AlertSource [Sigma, EtPro]</t>
+  </si>
+  <si>
+    <t>netcon</t>
+  </si>
+  <si>
+    <t>process-access</t>
+  </si>
+  <si>
+    <t>edr specific data like [mde]</t>
+  </si>
+  <si>
+    <t>cobalt strike</t>
+  </si>
+  <si>
+    <t>cmd.exe /C dir &amp;homedrive%homepath%</t>
+  </si>
+  <si>
+    <t>cmd.exe  /C query session</t>
+  </si>
+  <si>
+    <t>cmd.exe  /C nltest /dclist</t>
+  </si>
+  <si>
+    <t>cmd.exe  /C nltext /domain_trust</t>
+  </si>
+  <si>
+    <t>cmd.exe  /C net group \"Enterprise Admins\"  /domain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cmd.exe  /C net group \"Domain Admins\" /domain </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disabled Defender </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HKLM\SOFTWARE\Policies\Microsoft\Windows Defender\DisableAntiSpyware </t>
+  </si>
+  <si>
+    <t>Delete Registry Key Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HKLM\SOFTWARE\Policies\Microsoft\Windows Defender\Real-Time Monitoring\DisableRealtimeMonitoring </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HKLM\SOFTWARE\Policies\Microsoft\Windows Defender\Real-Time Monitoring\DisableBehaviorMonitoring </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HKLM\SOFTWARE\Policies\Microsoft\Windows Defender\Real-Time Monitoring\DisableIntrusionPreventionSystem </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HKLM\SOFTWARE\Policies\Microsoft\Windows Defender\Real-Time Protection </t>
+  </si>
+  <si>
+    <t>Delete Registry Key</t>
+  </si>
+  <si>
+    <t>lsass.exe</t>
+  </si>
+  <si>
+    <t>shell</t>
+  </si>
+  <si>
+    <t>script</t>
+  </si>
+  <si>
+    <t>Ioc Tag Like [TTP, C2, Tool, File, Account, Ip, ProcessSpawn, ProcessInjection, Url, CVE, Vulnerability, Malware]</t>
   </si>
 </sst>
 </file>
@@ -260,7 +584,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -281,8 +605,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -319,8 +650,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -343,15 +680,90 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -368,16 +780,38 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="37">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -609,6 +1043,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -638,6 +1078,7 @@
           <bgColor theme="0" tint="-0.14999847407452621"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -724,12 +1165,6 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -795,17 +1230,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F0B13837-2F05-F446-8450-1444C0F706E8}" name="Table3" displayName="Table3" ref="A1:H2" totalsRowShown="0" headerRowDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F0B13837-2F05-F446-8450-1444C0F706E8}" name="Table3" displayName="Table3" ref="A1:H2" totalsRowShown="0" headerRowDxfId="36">
   <autoFilter ref="A1:H2" xr:uid="{F0B13837-2F05-F446-8450-1444C0F706E8}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H2">
     <sortCondition ref="A1:A2"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{F47FA1CD-106B-6544-9B1E-560B703A91FF}" name="Date" dataDxfId="33"/>
+    <tableColumn id="1" xr3:uid="{F47FA1CD-106B-6544-9B1E-560B703A91FF}" name="Date" dataDxfId="35"/>
     <tableColumn id="2" xr3:uid="{A84FF5FF-F8EF-5A48-8A81-575CECC8A614}" name="IntelSource"/>
     <tableColumn id="3" xr3:uid="{BEAE3E8E-095A-C049-A5EE-C326845058E3}" name="Type"/>
-    <tableColumn id="4" xr3:uid="{7EFA9FD5-CD2A-434B-BC2E-544CC47E6457}" name="ThreatGroup" dataDxfId="32"/>
-    <tableColumn id="10" xr3:uid="{9E3FD790-A5A2-0B44-807A-FF3FF75EC367}" name="ThreatCategory" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{7EFA9FD5-CD2A-434B-BC2E-544CC47E6457}" name="ThreatGroup" dataDxfId="34"/>
+    <tableColumn id="10" xr3:uid="{9E3FD790-A5A2-0B44-807A-FF3FF75EC367}" name="ThreatCategory" dataDxfId="33"/>
     <tableColumn id="6" xr3:uid="{315D0D92-0CD5-2444-9D49-D15263ED39DB}" name="Label"/>
     <tableColumn id="5" xr3:uid="{D4FCF821-488A-E24D-A0FA-6FE7D6009BA2}" name="Link"/>
     <tableColumn id="7" xr3:uid="{AF1758B9-0181-5E4E-BB0D-F2C4F01949E9}" name="Status"/>
@@ -815,7 +1250,7 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{0E3B4673-AD25-6A4D-8F8D-064CEFD4B92B}" name="Table10" displayName="Table10" ref="A1:N2" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{0E3B4673-AD25-6A4D-8F8D-064CEFD4B92B}" name="Table10" displayName="Table10" ref="A1:N2" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="A1:N2" xr:uid="{0E3B4673-AD25-6A4D-8F8D-064CEFD4B92B}"/>
   <tableColumns count="14">
     <tableColumn id="2" xr3:uid="{E605C444-C226-4346-BCBA-52D62757D0C6}" name="Index"/>
@@ -838,7 +1273,7 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{2EDB04BC-9502-994C-A816-5C39F9E09A2A}" name="Table11" displayName="Table11" ref="A1:J2" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{2EDB04BC-9502-994C-A816-5C39F9E09A2A}" name="Table11" displayName="Table11" ref="A1:J2" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="A1:J2" xr:uid="{2EDB04BC-9502-994C-A816-5C39F9E09A2A}"/>
   <tableColumns count="10">
     <tableColumn id="2" xr3:uid="{F0D4A855-D7F0-4F42-8ABD-537F34A0DEAD}" name="Index"/>
@@ -857,15 +1292,18 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{C8BCB385-41B4-534F-910B-02D37EEF1C74}" name="Table8" displayName="Table8" ref="A1:J2" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:J2" xr:uid="{C8BCB385-41B4-534F-910B-02D37EEF1C74}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{C8BCB385-41B4-534F-910B-02D37EEF1C74}" name="Table8" displayName="Table8" ref="A1:J4" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A1:J4" xr:uid="{C8BCB385-41B4-534F-910B-02D37EEF1C74}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J4">
+    <sortCondition ref="A1:A4"/>
+  </sortState>
   <tableColumns count="10">
     <tableColumn id="2" xr3:uid="{989B0AC2-E3DE-1F4F-AD3E-6D8F7E2B04ED}" name="Index"/>
     <tableColumn id="3" xr3:uid="{A7865D69-B2FE-EC42-9D1B-F15A0B19A0B6}" name="DataSource"/>
     <tableColumn id="1" xr3:uid="{A01D65E2-99C8-2443-8E32-029375F86783}" name="Description"/>
-    <tableColumn id="4" xr3:uid="{9BFC03D1-5A49-C547-B104-0C491A21FB0D}" name="ServiceFileName" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{9BFC03D1-5A49-C547-B104-0C491A21FB0D}" name="ServiceFileName" dataDxfId="3"/>
     <tableColumn id="5" xr3:uid="{9D065F18-50B6-D54E-A0A9-54FCF0CB7050}" name="ServiceAccount"/>
-    <tableColumn id="6" xr3:uid="{DA9F6BFD-0EAC-2646-B078-7BF0150A774E}" name="ServiceName" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{DA9F6BFD-0EAC-2646-B078-7BF0150A774E}" name="ServiceName" dataDxfId="2"/>
     <tableColumn id="7" xr3:uid="{E50E5F73-527F-834E-BCF9-BECBE813793F}" name="ServiceType"/>
     <tableColumn id="8" xr3:uid="{CD990353-D1B3-CF47-93B4-741F7D4ABCFD}" name="ServiceStartType"/>
     <tableColumn id="9" xr3:uid="{D94FBBD8-A009-E44D-A7B4-32423D3043F1}" name="NsObject"/>
@@ -876,29 +1314,29 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C984C974-B940-014D-B081-9685F19A6DA8}" name="Table4" displayName="Table4" ref="A1:D2" totalsRowShown="0" headerRowDxfId="30">
-  <autoFilter ref="A1:D2" xr:uid="{C984C974-B940-014D-B081-9685F19A6DA8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C984C974-B940-014D-B081-9685F19A6DA8}" name="Table4" displayName="Table4" ref="A1:D13" totalsRowShown="0" headerRowDxfId="32">
+  <autoFilter ref="A1:D13" xr:uid="{C984C974-B940-014D-B081-9685F19A6DA8}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D2">
     <sortCondition ref="A1:A2"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{55BECEA3-155C-FB4E-A6DF-73D8DA5F1DF6}" name="Index" dataDxfId="29"/>
+    <tableColumn id="1" xr3:uid="{55BECEA3-155C-FB4E-A6DF-73D8DA5F1DF6}" name="Index" dataDxfId="31"/>
     <tableColumn id="3" xr3:uid="{46938C8F-86E8-C344-9BB3-F9592B7417A9}" name="IocType"/>
-    <tableColumn id="4" xr3:uid="{E15020CD-8B74-A34D-B419-B4CE0245E9E0}" name="Ioc" dataDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{6FB170F5-6334-4C47-8819-157AB78233B2}" name="Description" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{E15020CD-8B74-A34D-B419-B4CE0245E9E0}" name="Ioc" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{6FB170F5-6334-4C47-8819-157AB78233B2}" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{AF94A374-1491-8B4D-AFCC-A64EC3D2A13D}" name="Table7" displayName="Table7" ref="A1:E2" totalsRowShown="0" headerRowDxfId="26">
-  <autoFilter ref="A1:E2" xr:uid="{AF94A374-1491-8B4D-AFCC-A64EC3D2A13D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{AF94A374-1491-8B4D-AFCC-A64EC3D2A13D}" name="Table7" displayName="Table7" ref="A1:E22" totalsRowShown="0" headerRowDxfId="30">
+  <autoFilter ref="A1:E22" xr:uid="{AF94A374-1491-8B4D-AFCC-A64EC3D2A13D}"/>
   <tableColumns count="5">
-    <tableColumn id="2" xr3:uid="{4082B79E-9BAC-EE49-9D02-A13CEF584AC0}" name="Index" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{3BA7C236-8980-8148-BF61-C4D7D7EB4FF6}" name="AlertType" dataDxfId="24"/>
-    <tableColumn id="1" xr3:uid="{1D1B78D1-79B4-7647-A551-F48C45DC7E05}" name="Description" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{D523A10C-1686-7841-A261-F254482F7C12}" name="AlertName" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{4082B79E-9BAC-EE49-9D02-A13CEF584AC0}" name="Index" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{3BA7C236-8980-8148-BF61-C4D7D7EB4FF6}" name="AlertType" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{1D1B78D1-79B4-7647-A551-F48C45DC7E05}" name="Description" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{D523A10C-1686-7841-A261-F254482F7C12}" name="AlertName" dataDxfId="26"/>
     <tableColumn id="5" xr3:uid="{98586F36-1C3E-5F45-B3CB-99FE7469F855}" name="OpenSourceLink"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -906,16 +1344,19 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A8EC758-5D33-4C42-8BDF-0E77E884B2B1}" name="Table1" displayName="Table1" ref="A1:L2" totalsRowShown="0" headerRowDxfId="21">
-  <autoFilter ref="A1:L2" xr:uid="{1A8EC758-5D33-4C42-8BDF-0E77E884B2B1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A8EC758-5D33-4C42-8BDF-0E77E884B2B1}" name="Table1" displayName="Table1" ref="A1:L44" totalsRowShown="0" headerRowDxfId="25">
+  <autoFilter ref="A1:L44" xr:uid="{1A8EC758-5D33-4C42-8BDF-0E77E884B2B1}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L44">
+    <sortCondition ref="A1:A44"/>
+  </sortState>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{7F4E572F-19FC-1C42-BF21-EF3EAA1CF83A}" name="Index"/>
     <tableColumn id="3" xr3:uid="{5246F5AC-4F4A-BC4C-892F-2E08E3349789}" name="DataSource"/>
-    <tableColumn id="2" xr3:uid="{5F8A3ABF-2915-064C-BFEA-3D5131ED4FEE}" name="Description" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{EC97FE83-2E03-5E48-888D-422875E85798}" name="CommandLine" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{98ED451A-7E15-194B-9A2A-B48F6F5A495C}" name="InitiatingCommandLine" dataDxfId="18"/>
-    <tableColumn id="8" xr3:uid="{A1DCCB51-4CD0-3D42-9845-AF6CCD7105FD}" name="FileName"/>
-    <tableColumn id="9" xr3:uid="{CE79E0AD-312B-0E42-B228-D4F253BA6806}" name="InitiatingFileName"/>
+    <tableColumn id="2" xr3:uid="{5F8A3ABF-2915-064C-BFEA-3D5131ED4FEE}" name="Description" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{EC97FE83-2E03-5E48-888D-422875E85798}" name="CommandLine" dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{98ED451A-7E15-194B-9A2A-B48F6F5A495C}" name="InitiatingCommandLine" dataDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{A1DCCB51-4CD0-3D42-9845-AF6CCD7105FD}" name="FileName" dataDxfId="21"/>
+    <tableColumn id="9" xr3:uid="{CE79E0AD-312B-0E42-B228-D4F253BA6806}" name="InitiatingFileName" dataDxfId="20"/>
     <tableColumn id="10" xr3:uid="{59BE221F-7EFC-0F46-9385-80C5DBB9BDA0}" name="FilePath"/>
     <tableColumn id="11" xr3:uid="{C413EDDE-EE57-234B-AF33-611D04820FE4}" name="InitiagingFilePath"/>
     <tableColumn id="12" xr3:uid="{C7EE30D7-8AB1-2440-A49A-801A3FE620FE}" name="Account"/>
@@ -927,8 +1368,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7A14630A-FD1A-5947-BDBF-9AB6BB80806B}" name="Table5" displayName="Table5" ref="A1:K2" totalsRowShown="0" headerRowDxfId="17">
-  <autoFilter ref="A1:K2" xr:uid="{7A14630A-FD1A-5947-BDBF-9AB6BB80806B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7A14630A-FD1A-5947-BDBF-9AB6BB80806B}" name="Table5" displayName="Table5" ref="A1:K3" totalsRowShown="0" headerRowDxfId="19">
+  <autoFilter ref="A1:K3" xr:uid="{7A14630A-FD1A-5947-BDBF-9AB6BB80806B}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{76C592A4-DC6F-6D43-92A4-408F9DA9250D}" name="Index"/>
     <tableColumn id="3" xr3:uid="{8DB66F33-29D6-F943-8797-F32327A212C4}" name="DataSource"/>
@@ -947,8 +1388,11 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5488C31B-B913-0C48-8EC2-BF3FA3FCC2F3}" name="Table2" displayName="Table2" ref="A1:O2" totalsRowShown="0" headerRowDxfId="16">
-  <autoFilter ref="A1:O2" xr:uid="{5488C31B-B913-0C48-8EC2-BF3FA3FCC2F3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5488C31B-B913-0C48-8EC2-BF3FA3FCC2F3}" name="Table2" displayName="Table2" ref="A1:O6" totalsRowShown="0" headerRowDxfId="18">
+  <autoFilter ref="A1:O6" xr:uid="{5488C31B-B913-0C48-8EC2-BF3FA3FCC2F3}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O6">
+    <sortCondition ref="A1:A6"/>
+  </sortState>
   <tableColumns count="15">
     <tableColumn id="2" xr3:uid="{C61E54E6-397A-FC46-AAD6-240590F974E3}" name="Index"/>
     <tableColumn id="3" xr3:uid="{65FA3503-F561-914E-AE5F-225C57E6B5DB}" name="DataSource"/>
@@ -960,8 +1404,8 @@
     <tableColumn id="8" xr3:uid="{31283C92-1EFA-6A42-9DBF-04528B88D2E1}" name="DstUrl"/>
     <tableColumn id="9" xr3:uid="{51BA9213-7570-8E41-AE11-0FE14C3D5701}" name="Protocol"/>
     <tableColumn id="10" xr3:uid="{A2C22DBE-E948-9E46-816B-78C44758D5EF}" name="InitiatingFileName"/>
-    <tableColumn id="11" xr3:uid="{6B8E6EFD-C9FC-D343-A788-A722434ECD48}" name="InitiatingFilePath" dataDxfId="15"/>
-    <tableColumn id="12" xr3:uid="{AC978556-86B3-B84E-A543-525614EB9453}" name="InititatingCommandLine" dataDxfId="14"/>
+    <tableColumn id="11" xr3:uid="{6B8E6EFD-C9FC-D343-A788-A722434ECD48}" name="InitiatingFilePath" dataDxfId="17"/>
+    <tableColumn id="12" xr3:uid="{AC978556-86B3-B84E-A543-525614EB9453}" name="InititatingCommandLine" dataDxfId="16"/>
     <tableColumn id="13" xr3:uid="{880D4AC4-B22D-434F-8A35-AED8146625FB}" name="Account"/>
     <tableColumn id="14" xr3:uid="{C092A7D2-DC1E-F84A-A2FD-A8D268736295}" name="NsObject"/>
     <tableColumn id="15" xr3:uid="{6D50EE84-9CBF-294C-BBA4-C4B004FED849}" name="NsMeta"/>
@@ -971,18 +1415,21 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{CE00DF4B-4838-3746-8DA8-223607BE2986}" name="Table9" displayName="Table9" ref="A1:K2" totalsRowShown="0" headerRowDxfId="13">
-  <autoFilter ref="A1:K2" xr:uid="{CE00DF4B-4838-3746-8DA8-223607BE2986}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{CE00DF4B-4838-3746-8DA8-223607BE2986}" name="Table9" displayName="Table9" ref="A1:K3" totalsRowShown="0" headerRowDxfId="15">
+  <autoFilter ref="A1:K3" xr:uid="{CE00DF4B-4838-3746-8DA8-223607BE2986}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K3">
+    <sortCondition ref="A1:A3"/>
+  </sortState>
   <tableColumns count="11">
-    <tableColumn id="2" xr3:uid="{DDC92C39-DF7D-F145-A125-35CE110317A9}" name="Index" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{DDC92C39-DF7D-F145-A125-35CE110317A9}" name="Index" dataDxfId="14"/>
     <tableColumn id="3" xr3:uid="{42FB8108-D944-5E41-9DA2-C80682897705}" name="DataSource"/>
-    <tableColumn id="4" xr3:uid="{C78F30C1-F3D2-4947-AA2C-9F4F7C73441D}" name="Description" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{C78F30C1-F3D2-4947-AA2C-9F4F7C73441D}" name="Description" dataDxfId="13"/>
     <tableColumn id="5" xr3:uid="{F8DB3A8C-CCA7-FA4B-B054-EEF4AFBDDB4A}" name="SrcProcess"/>
     <tableColumn id="6" xr3:uid="{85F4D6B8-4608-3C44-97D3-0C4E61F02C01}" name="SrcProcessPath"/>
     <tableColumn id="7" xr3:uid="{6A22DAC2-2589-7B4E-9463-85B1BB8F7F22}" name="TgtProcess"/>
     <tableColumn id="8" xr3:uid="{F21FFD42-BED9-6D4E-B1E8-DC3622EA9839}" name="TgtProcessPath"/>
     <tableColumn id="9" xr3:uid="{9C5EFD03-F9F2-9B49-B696-939146DC942E}" name="Access"/>
-    <tableColumn id="10" xr3:uid="{0F18CD86-04B9-174A-A498-FA50ADE31CAB}" name="Trace" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{0F18CD86-04B9-174A-A498-FA50ADE31CAB}" name="Trace" dataDxfId="12"/>
     <tableColumn id="11" xr3:uid="{870A7B54-C726-2743-8557-6389004E2EB0}" name="NsObject"/>
     <tableColumn id="12" xr3:uid="{D7C8AEEE-0E43-864C-839B-BFF4391557E8}" name="NsMeta"/>
   </tableColumns>
@@ -991,26 +1438,26 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{CEFAFF50-3320-0243-AFDF-77D01F97C428}" name="Table12" displayName="Table12" ref="A1:D2" totalsRowShown="0" headerRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{CEFAFF50-3320-0243-AFDF-77D01F97C428}" name="Table12" displayName="Table12" ref="A1:D2" totalsRowShown="0" headerRowDxfId="11">
   <autoFilter ref="A1:D2" xr:uid="{CEFAFF50-3320-0243-AFDF-77D01F97C428}"/>
   <tableColumns count="4">
     <tableColumn id="2" xr3:uid="{21897088-4E03-7549-9652-A4BEEE760E89}" name="Index"/>
     <tableColumn id="3" xr3:uid="{605B641F-5F59-B94F-991C-43300CC9BBDA}" name="DataSource"/>
     <tableColumn id="4" xr3:uid="{7427C911-F326-EF41-878F-ED1DD5F1C542}" name="Description"/>
-    <tableColumn id="5" xr3:uid="{29472079-B95D-E845-9253-44428660972F}" name="ShellCommand" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{29472079-B95D-E845-9253-44428660972F}" name="ShellCommand" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{BE4EBF98-CFD7-C845-84F9-04F5815B2C8C}" name="Table6" displayName="Table6" ref="A1:D2" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{BE4EBF98-CFD7-C845-84F9-04F5815B2C8C}" name="Table6" displayName="Table6" ref="A1:D2" totalsRowShown="0" headerRowDxfId="9">
   <autoFilter ref="A1:D2" xr:uid="{BE4EBF98-CFD7-C845-84F9-04F5815B2C8C}"/>
   <tableColumns count="4">
     <tableColumn id="2" xr3:uid="{77268EB9-1251-9745-92E1-436BE6AE585B}" name="Index"/>
     <tableColumn id="3" xr3:uid="{59DDF428-3E0B-6643-8972-9BD2488E3FA7}" name="DataSource"/>
-    <tableColumn id="6" xr3:uid="{575BE17D-399F-694F-BA78-2C24B0637E65}" name="Description" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{1DA5E534-877D-D843-9D4B-10ED484674AF}" name="ScriptContents" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{575BE17D-399F-694F-BA78-2C24B0637E65}" name="Description" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{1DA5E534-877D-D843-9D4B-10ED484674AF}" name="ScriptContents" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1338,9 +1785,9 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1348,36 +1795,36 @@
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.1640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.33203125" customWidth="1"/>
     <col min="7" max="7" width="122.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="A1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -1385,22 +1832,22 @@
         <v>44328</v>
       </c>
       <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>67</v>
-      </c>
       <c r="G2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" t="s">
         <v>62</v>
-      </c>
-      <c r="H2" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1419,12 +1866,13 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
     <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.1640625" customWidth="1"/>
     <col min="5" max="5" width="55.6640625" bestFit="1" customWidth="1"/>
@@ -1439,46 +1887,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="A1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1486,9 +1934,13 @@
       <c r="A2">
         <v>0</v>
       </c>
+      <c r="N2" t="s">
+        <v>156</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -1503,7 +1955,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1519,40 +1971,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="13" t="s">
+      <c r="A1" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" s="13" t="s">
+      <c r="G1" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="H1" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1568,11 +2023,11 @@
   <sheetPr>
     <tabColor theme="3" tint="9.9978637043366805E-2"/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1580,7 +2035,7 @@
     <col min="1" max="1" width="12.83203125" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" customWidth="1"/>
     <col min="3" max="3" width="35.83203125" customWidth="1"/>
-    <col min="4" max="4" width="61.1640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="61.1640625" style="5" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" customWidth="1"/>
     <col min="6" max="6" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
@@ -1589,34 +2044,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="13" t="s">
+      <c r="A1" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="11" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1625,9 +2080,55 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G4" t="s">
+        <v>115</v>
+      </c>
+      <c r="H4" t="s">
+        <v>116</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1643,38 +2144,177 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.83203125" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
-    <col min="3" max="3" width="75" style="6" customWidth="1"/>
-    <col min="4" max="4" width="74.1640625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="75" style="5" customWidth="1"/>
+    <col min="4" max="4" width="74.1640625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="8" t="s">
+      <c r="A1" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -1690,48 +2330,291 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.83203125" customWidth="1"/>
-    <col min="4" max="4" width="102.33203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.83203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="102.33203125" style="5" customWidth="1"/>
     <col min="5" max="5" width="153.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>58</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="12"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="21" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="17">
+        <v>1</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="15">
+        <v>2</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4" s="22"/>
+      <c r="D4" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="15">
+        <v>3</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="15">
+        <v>4</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" s="22"/>
+      <c r="D6" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="15">
+        <v>5</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" s="22"/>
+      <c r="D7" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="15">
+        <v>6</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" s="22"/>
+      <c r="D8" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="15">
+        <v>7</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="15">
+        <v>8</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="15">
+        <v>9</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C11" s="22"/>
+      <c r="D11" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="15">
+        <v>10</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C12" s="22"/>
+      <c r="D12" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="15">
+        <v>11</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C13" s="22"/>
+      <c r="D13" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="15">
+        <v>12</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="E14" s="13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="C15" s="23"/>
+      <c r="E15" s="14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="15">
+        <v>14</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="C16" s="23"/>
+      <c r="E16" s="13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="15">
+        <v>15</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="C17" s="23"/>
+      <c r="E17" s="14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="15">
+        <v>16</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="C18" s="23"/>
+      <c r="E18" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="15">
+        <v>17</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="C19" s="23"/>
+      <c r="E19" s="14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="15">
+        <v>18</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="C20" s="23"/>
+      <c r="E20" s="13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="15">
+        <v>19</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="C21" s="23"/>
+      <c r="E21" s="14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="15">
+        <v>20</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="C22" s="23"/>
+      <c r="E22" s="19" t="s">
+        <v>150</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -1743,19 +2626,19 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5" style="6" customWidth="1"/>
-    <col min="3" max="3" width="51" style="6" customWidth="1"/>
-    <col min="4" max="4" width="68.1640625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="51" style="5" customWidth="1"/>
+    <col min="4" max="4" width="68.1640625" style="5" customWidth="1"/>
     <col min="5" max="5" width="54.6640625" customWidth="1"/>
     <col min="6" max="6" width="22.6640625" customWidth="1"/>
     <col min="7" max="7" width="29.1640625" bestFit="1" customWidth="1"/>
@@ -1767,51 +2650,706 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="6"/>
+      <c r="B2" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+    </row>
+    <row r="38" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+    </row>
+    <row r="40" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+    </row>
+    <row r="42" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G42" s="5"/>
+    </row>
+    <row r="43" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+    </row>
+    <row r="44" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1826,11 +3364,11 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1849,37 +3387,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="9" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1888,7 +3426,18 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E3" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1904,11 +3453,11 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1920,56 +3469,56 @@
     <col min="7" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="60.83203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.6640625" customWidth="1"/>
-    <col min="11" max="11" width="61.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="44.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="61.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="44.1640625" style="5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="23.1640625" customWidth="1"/>
     <col min="15" max="15" width="26.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="9" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1978,7 +3527,81 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>17</v>
+      </c>
+      <c r="E3">
+        <v>3389</v>
+      </c>
+      <c r="F3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4">
+        <v>80</v>
+      </c>
+      <c r="G4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5">
+        <v>80</v>
+      </c>
+      <c r="H5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6">
+        <v>80</v>
+      </c>
+      <c r="H6" t="s">
+        <v>108</v>
+      </c>
+      <c r="J6" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1994,68 +3617,94 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="5" customWidth="1"/>
     <col min="4" max="4" width="44" customWidth="1"/>
     <col min="5" max="5" width="41.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="61.5" style="6" customWidth="1"/>
+    <col min="9" max="9" width="61.5" style="5" customWidth="1"/>
     <col min="10" max="10" width="17.1640625" customWidth="1"/>
     <col min="11" max="11" width="40.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+      <c r="A2" s="15">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="17">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2074,7 +3723,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2082,26 +3731,29 @@
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.5" customWidth="1"/>
-    <col min="4" max="4" width="114.5" style="6" customWidth="1"/>
+    <col min="4" max="4" width="114.5" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>30</v>
+      <c r="D1" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -2121,7 +3773,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2133,22 +3785,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
